--- a/levels/level3.xlsx
+++ b/levels/level3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Projects\mobgenerator_weaponswitcher\levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Other projects\Weapons switcher\mobgenerator_weaponswitcher\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE9339-FED4-4462-BFBD-2A390E78C47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37470" windowHeight="21840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37476" windowHeight="21840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="enemies" sheetId="3" r:id="rId3"/>
     <sheet name="misc" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -102,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,20 +435,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -465,12 +464,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -480,20 +479,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2</v>
       </c>
@@ -502,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,13 +513,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E3">
         <f>meta!$B$1*ROW()</f>
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -535,7 +534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>3</v>
       </c>
@@ -544,19 +543,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6">
         <f>meta!$B$1*ROW()</f>
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7">
         <f>meta!$B$1*ROW()</f>
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -571,7 +570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>4</v>
       </c>
@@ -580,19 +579,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10">
         <f>meta!$B$1*ROW()</f>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11">
         <f>meta!$B$1*ROW()</f>
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -604,19 +603,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>meta!$B$1*ROW()</f>
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14">
         <f>meta!$B$1*ROW()</f>
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -628,13 +627,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16">
         <f>meta!$B$1*ROW()</f>
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4</v>
       </c>
@@ -643,7 +642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>3</v>
       </c>
@@ -652,7 +651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -661,175 +660,175 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E20">
         <f>meta!$B$1*ROW()</f>
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E21">
         <f>meta!$B$1*ROW()</f>
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E22">
         <f>meta!$B$1*ROW()</f>
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E23">
         <f>meta!$B$1*ROW()</f>
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E24">
         <f>meta!$B$1*ROW()</f>
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E25">
         <f>meta!$B$1*ROW()</f>
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E26">
         <f>meta!$B$1*ROW()</f>
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E27">
         <f>meta!$B$1*ROW()</f>
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E28">
         <f>meta!$B$1*ROW()</f>
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E29">
         <f>meta!$B$1*ROW()</f>
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E30">
         <f>meta!$B$1*ROW()</f>
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31">
         <f>meta!$B$1*ROW()</f>
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E32">
         <f>meta!$B$1*ROW()</f>
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33">
         <f>meta!$B$1*ROW()</f>
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34">
         <f>meta!$B$1*ROW()</f>
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35">
         <f>meta!$B$1*ROW()</f>
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36">
         <f>meta!$B$1*ROW()</f>
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37">
         <f>meta!$B$1*ROW()</f>
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38">
         <f>meta!$B$1*ROW()</f>
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39">
         <f>meta!$B$1*ROW()</f>
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40">
         <f>meta!$B$1*ROW()</f>
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41">
         <f>meta!$B$1*ROW()</f>
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42">
         <f>meta!$B$1*ROW()</f>
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43">
         <f>meta!$B$1*ROW()</f>
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44">
         <f>meta!$B$1*ROW()</f>
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45">
         <f>meta!$B$1*ROW()</f>
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46">
         <f>meta!$B$1*ROW()</f>
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47">
         <f>meta!$B$1*ROW()</f>
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48">
         <f>meta!$B$1*ROW()</f>
         <v>144</v>
@@ -842,28 +841,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" customWidth="1"/>
+    <col min="6" max="6" width="57.88671875" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -883,7 +882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -903,7 +902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -923,7 +922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -943,7 +942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -963,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -986,7 +985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1016,94 +1015,94 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB22E08-D7E6-44F4-914F-485CD0DA319A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" activeCellId="2" sqref="A13 A16 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="1" max="1" width="73.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>

--- a/levels/level3.xlsx
+++ b/levels/level3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Other projects\Weapons switcher\mobgenerator_weaponswitcher\levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Projects\mobgenerator_weaponswitcher\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753DA729-946E-4908-BC89-9CF89D3B257C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37476" windowHeight="21840" tabRatio="500"/>
+    <workbookView xWindow="3720" yWindow="3165" windowWidth="27930" windowHeight="15885" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="enemies" sheetId="3" r:id="rId3"/>
     <sheet name="misc" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>deltaTime</t>
   </si>
@@ -81,12 +82,6 @@
   </si>
   <si>
     <t>EnemyPrefabs/Special Enemies/Bionic Lady Bird/Bionic Lady Bird</t>
-  </si>
-  <si>
-    <t>EnemyPrefabs/Bullet Enemies//</t>
-  </si>
-  <si>
-    <t>EnemyPrefabs/Special Enemies//</t>
   </si>
   <si>
     <t>EnemyPrefabs/Special Enemies/Steampunk Fly/Steampunk Fly</t>
@@ -101,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,13 +143,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,20 +433,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -464,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -479,357 +477,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="4" width="4.7109375" style="3" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" style="3" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <f>meta!$B$1*ROW()</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="E1">
-        <f>meta!$B$1*ROW()</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="E9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="E17">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="E19">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E20">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E21">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E22">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E23">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E24">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E28">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E29">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E30">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E32">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="3">
         <f>meta!$B$1*ROW()</f>
         <v>144</v>
       </c>
@@ -841,28 +819,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" customWidth="1"/>
-    <col min="6" max="6" width="57.88671875" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="57.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -882,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -902,7 +880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -919,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -942,7 +920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -962,7 +940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -979,13 +957,10 @@
         <v>1.5</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1004,8 +979,65 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1015,94 +1047,94 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" activeCellId="2" sqref="A13 A16 A6"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.88671875" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
